--- a/美诺华/美诺华财务.xlsx
+++ b/美诺华/美诺华财务.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="财务" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="现金流量表" sheetId="4" r:id="rId4"/>
     <sheet name="研发" sheetId="5" r:id="rId5"/>
     <sheet name="扩产计划" sheetId="6" r:id="rId6"/>
+    <sheet name="原料药对比" sheetId="7" r:id="rId7"/>
+    <sheet name="CDMO对比" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="1067">
   <si>
     <t>每股指标</t>
   </si>
@@ -3511,12 +3513,167 @@
     <t>安徽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>TTM</t>
+  </si>
+  <si>
+    <t>2020E</t>
+  </si>
+  <si>
+    <t>2021E</t>
+  </si>
+  <si>
+    <t>2022E</t>
+  </si>
+  <si>
+    <t>603229.SH</t>
+  </si>
+  <si>
+    <t>奥翔药业</t>
+  </si>
+  <si>
+    <t>600521.SH</t>
+  </si>
+  <si>
+    <t>华海药业</t>
+  </si>
+  <si>
+    <t>603520.SH</t>
+  </si>
+  <si>
+    <t>司太立</t>
+  </si>
+  <si>
+    <t>600216.SH</t>
+  </si>
+  <si>
+    <t>浙江医药</t>
+  </si>
+  <si>
+    <t>300702.SZ</t>
+  </si>
+  <si>
+    <t>天宇股份</t>
+  </si>
+  <si>
+    <t>002940.SZ</t>
+  </si>
+  <si>
+    <t>昂利康</t>
+  </si>
+  <si>
+    <t>688166.SH</t>
+  </si>
+  <si>
+    <t>博瑞医药</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>603538.SH</t>
+  </si>
+  <si>
+    <t>美诺华</t>
+  </si>
+  <si>
+    <t>002821.SZ</t>
+  </si>
+  <si>
+    <t>凯莱英</t>
+  </si>
+  <si>
+    <t>603259.SH</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>300759.SZ</t>
+  </si>
+  <si>
+    <t>康龙化成</t>
+  </si>
+  <si>
+    <t>300725.SZ</t>
+  </si>
+  <si>
+    <t>药石科技</t>
+  </si>
+  <si>
+    <t>300363.SZ</t>
+  </si>
+  <si>
+    <t>博腾股份</t>
+  </si>
+  <si>
+    <t>603456.SH</t>
+  </si>
+  <si>
+    <t>九洲药业</t>
+  </si>
+  <si>
+    <t>000739.SZ</t>
+  </si>
+  <si>
+    <t>普洛药业</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>药明生物</t>
+  </si>
+  <si>
+    <t>睿智医药</t>
+  </si>
+  <si>
+    <t>海普瑞</t>
+  </si>
+  <si>
+    <t>2020年CDMO业务收入</t>
+  </si>
+  <si>
+    <t>2020年CDMO业务增速</t>
+  </si>
+  <si>
+    <t>1.93(2019)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.57(2019)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 年 PDI 峰会“2020 中国 CDMO 企业 20 强”前十名</t>
+  </si>
+  <si>
+    <t>未披露</t>
+  </si>
+  <si>
+    <t>56%+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3554,6 +3711,13 @@
       <color rgb="FF000000"/>
       <name val="TimesNewRomanPS-BoldMT"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="KaiTi_GB2312"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3606,7 +3770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3622,22 +3786,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3920,13 +4094,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3976,7 +4150,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="27.6">
+    <row r="3" spans="1:11" ht="28.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4011,7 +4185,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27.6">
+    <row r="4" spans="1:11" ht="28.5">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -4046,7 +4220,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27.6">
+    <row r="5" spans="1:11" ht="28.5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4081,7 +4255,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="27.6">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4116,7 +4290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="27.6">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4151,7 +4325,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="41.4">
+    <row r="8" spans="1:11" ht="28.5">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4186,7 +4360,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="41.4">
+    <row r="9" spans="1:11" ht="28.5">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4221,7 +4395,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27.6">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4236,7 +4410,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="27.6">
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -4271,7 +4445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27.6">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -4306,7 +4480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="27.6">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -4341,7 +4515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27.6">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -4376,7 +4550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="41.4">
+    <row r="15" spans="1:11" ht="28.5">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -4411,7 +4585,7 @@
         <v>-0.73</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="41.4">
+    <row r="16" spans="1:11" ht="28.5">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -4446,7 +4620,7 @@
         <v>-12.58</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="41.4">
+    <row r="17" spans="1:11" ht="28.5">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
@@ -4481,7 +4655,7 @@
         <v>-11.9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="41.4">
+    <row r="18" spans="1:11" ht="28.5">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -4516,7 +4690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="41.4">
+    <row r="19" spans="1:11" ht="28.5">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -4551,7 +4725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="41.4">
+    <row r="20" spans="1:11" ht="28.5">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -4586,7 +4760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="27.6">
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -4601,7 +4775,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="41.4">
+    <row r="22" spans="1:11" ht="28.5">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -4636,7 +4810,7 @@
         <v>15.44</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="41.4">
+    <row r="23" spans="1:11" ht="28.5">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -4671,7 +4845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="41.4">
+    <row r="24" spans="1:11" ht="28.5">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -4776,7 +4950,7 @@
         <v>13.22</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="27.6">
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -4811,7 +4985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="27.6">
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -4826,7 +5000,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="27.6">
+    <row r="29" spans="1:11" ht="28.5">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -4861,7 +5035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="41.4">
+    <row r="30" spans="1:11" ht="28.5">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -4896,7 +5070,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="41.4">
+    <row r="31" spans="1:11" ht="28.5">
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
@@ -4931,7 +5105,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="27.6">
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
@@ -4946,7 +5120,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="27.6">
+    <row r="33" spans="1:11" ht="28.5">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
@@ -4981,7 +5155,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="41.4">
+    <row r="34" spans="1:11" ht="28.5">
       <c r="A34" s="2" t="s">
         <v>53</v>
       </c>
@@ -5016,7 +5190,7 @@
         <v>41.26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="27.6">
+    <row r="35" spans="1:11" ht="28.5">
       <c r="A35" s="2" t="s">
         <v>54</v>
       </c>
@@ -5051,7 +5225,7 @@
         <v>155.29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="27.6">
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>55</v>
       </c>
@@ -5066,7 +5240,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="27.6">
+    <row r="37" spans="1:11">
       <c r="A37" s="2" t="s">
         <v>56</v>
       </c>
@@ -5101,7 +5275,7 @@
         <v>46.78</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="41.4">
+    <row r="38" spans="1:11" ht="28.5">
       <c r="A38" s="2" t="s">
         <v>57</v>
       </c>
@@ -5221,9 +5395,9 @@
       <selection activeCell="A8" sqref="A8:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5258,7 +5432,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27.6">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
@@ -5328,7 +5502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27.6">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -5398,7 +5572,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="27.6">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,7 +5607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="27.6">
+    <row r="7" spans="1:11" ht="28.5">
       <c r="A7" s="1" t="s">
         <v>91</v>
       </c>
@@ -5468,7 +5642,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27.6">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>102</v>
       </c>
@@ -5503,7 +5677,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="27.6">
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>113</v>
       </c>
@@ -5538,7 +5712,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27.6">
+    <row r="10" spans="1:11" ht="28.5">
       <c r="A10" s="2" t="s">
         <v>124</v>
       </c>
@@ -5573,7 +5747,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27.6">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>135</v>
       </c>
@@ -5608,7 +5782,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27.6">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>145</v>
       </c>
@@ -5643,7 +5817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="41.4">
+    <row r="13" spans="1:11" ht="28.5">
       <c r="A13" s="1" t="s">
         <v>146</v>
       </c>
@@ -5678,7 +5852,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27.6">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>152</v>
       </c>
@@ -5713,7 +5887,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="69">
+    <row r="15" spans="1:11" ht="42.75">
       <c r="A15" s="1" t="s">
         <v>162</v>
       </c>
@@ -5748,7 +5922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="27.6">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>167</v>
       </c>
@@ -5783,7 +5957,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27.6">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>178</v>
       </c>
@@ -5818,7 +5992,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="27.6">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>189</v>
       </c>
@@ -5853,7 +6027,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="27.6">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>200</v>
       </c>
@@ -5888,7 +6062,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="27.6">
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>211</v>
       </c>
@@ -5923,7 +6097,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="27.6">
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>222</v>
       </c>
@@ -5958,7 +6132,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="55.2">
+    <row r="22" spans="1:11" ht="42.75">
       <c r="A22" s="1" t="s">
         <v>232</v>
       </c>
@@ -5993,7 +6167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="27.6">
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>233</v>
       </c>
@@ -6028,7 +6202,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="55.2">
+    <row r="24" spans="1:11" ht="42.75">
       <c r="A24" s="1" t="s">
         <v>244</v>
       </c>
@@ -6078,7 +6252,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="27.6">
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>256</v>
       </c>
@@ -6113,7 +6287,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="27.6">
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>257</v>
       </c>
@@ -6148,7 +6322,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="27.6">
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>258</v>
       </c>
@@ -6183,7 +6357,7 @@
         <v>1207.7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="55.2">
+    <row r="29" spans="1:11" ht="42.75">
       <c r="A29" s="1" t="s">
         <v>267</v>
       </c>
@@ -6218,7 +6392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="55.2">
+    <row r="30" spans="1:11" ht="42.75">
       <c r="A30" s="1" t="s">
         <v>269</v>
       </c>
@@ -6253,7 +6427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="27.6">
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>270</v>
       </c>
@@ -6288,7 +6462,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="55.2">
+    <row r="32" spans="1:11" ht="42.75">
       <c r="A32" s="1" t="s">
         <v>278</v>
       </c>
@@ -6323,7 +6497,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="55.2">
+    <row r="33" spans="1:11" ht="42.75">
       <c r="A33" s="1" t="s">
         <v>287</v>
       </c>
@@ -6372,9 +6546,9 @@
       <selection activeCell="A10" sqref="A10:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -6424,7 +6598,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="27.6">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>290</v>
       </c>
@@ -6459,7 +6633,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="82.8">
+    <row r="4" spans="1:11" ht="57">
       <c r="A4" s="1" t="s">
         <v>301</v>
       </c>
@@ -6494,7 +6668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="41.4">
+    <row r="5" spans="1:11" ht="28.5">
       <c r="A5" s="1" t="s">
         <v>302</v>
       </c>
@@ -6564,7 +6738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="27.6">
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>310</v>
       </c>
@@ -6599,7 +6773,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27.6">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>321</v>
       </c>
@@ -6634,7 +6808,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="27.6">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>332</v>
       </c>
@@ -6704,7 +6878,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27.6">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>352</v>
       </c>
@@ -6739,7 +6913,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="27.6">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>363</v>
       </c>
@@ -6774,7 +6948,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="27.6">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>374</v>
       </c>
@@ -6789,7 +6963,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="41.4">
+    <row r="14" spans="1:11" ht="28.5">
       <c r="A14" s="1" t="s">
         <v>375</v>
       </c>
@@ -6824,7 +6998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27.6">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>377</v>
       </c>
@@ -6859,7 +7033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="27.6">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>378</v>
       </c>
@@ -6929,7 +7103,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="27.6">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>386</v>
       </c>
@@ -6964,7 +7138,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="27.6">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>394</v>
       </c>
@@ -7034,7 +7208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="27.6">
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>403</v>
       </c>
@@ -7069,7 +7243,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="27.6">
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>414</v>
       </c>
@@ -7104,7 +7278,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="27.6">
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>425</v>
       </c>
@@ -7139,7 +7313,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="27.6">
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>436</v>
       </c>
@@ -7259,7 +7433,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="27.6">
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>468</v>
       </c>
@@ -7294,7 +7468,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="27.6">
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>478</v>
       </c>
@@ -7329,7 +7503,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="27.6">
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
         <v>486</v>
       </c>
@@ -7364,7 +7538,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="27.6">
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>496</v>
       </c>
@@ -7399,7 +7573,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="27.6">
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>507</v>
       </c>
@@ -7504,7 +7678,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="27.6">
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>529</v>
       </c>
@@ -7539,7 +7713,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="41.4">
+    <row r="36" spans="1:11" ht="28.5">
       <c r="A36" s="1" t="s">
         <v>539</v>
       </c>
@@ -7574,7 +7748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="27.6">
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>543</v>
       </c>
@@ -7609,7 +7783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="27.6">
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
         <v>546</v>
       </c>
@@ -7644,7 +7818,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="27.6">
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>557</v>
       </c>
@@ -7764,7 +7938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="27.6">
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>564</v>
       </c>
@@ -7799,7 +7973,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="27.6">
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>571</v>
       </c>
@@ -7834,7 +8008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="27.6">
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>572</v>
       </c>
@@ -7904,7 +8078,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="41.4">
+    <row r="47" spans="1:11" ht="28.5">
       <c r="A47" s="1" t="s">
         <v>591</v>
       </c>
@@ -7919,7 +8093,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="41.4">
+    <row r="48" spans="1:11" ht="28.5">
       <c r="A48" s="1" t="s">
         <v>592</v>
       </c>
@@ -7989,7 +8163,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="27.6">
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
         <v>603</v>
       </c>
@@ -8024,7 +8198,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="27.6">
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
         <v>611</v>
       </c>
@@ -8059,7 +8233,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="41.4">
+    <row r="52" spans="1:11" ht="28.5">
       <c r="A52" s="1" t="s">
         <v>621</v>
       </c>
@@ -8094,7 +8268,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="27.6">
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
         <v>632</v>
       </c>
@@ -8129,7 +8303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="27.6">
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
         <v>633</v>
       </c>
@@ -8164,7 +8338,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="41.4">
+    <row r="55" spans="1:11" ht="28.5">
       <c r="A55" s="1" t="s">
         <v>643</v>
       </c>
@@ -8213,9 +8387,9 @@
       <selection activeCell="A5" sqref="A5:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -8250,7 +8424,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="41.4">
+    <row r="2" spans="1:11" ht="28.5">
       <c r="A2" s="1" t="s">
         <v>644</v>
       </c>
@@ -8265,7 +8439,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="55.2">
+    <row r="3" spans="1:11" ht="28.5">
       <c r="A3" s="1" t="s">
         <v>645</v>
       </c>
@@ -8300,7 +8474,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="55.2">
+    <row r="4" spans="1:11" ht="28.5">
       <c r="A4" s="1" t="s">
         <v>654</v>
       </c>
@@ -8335,7 +8509,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="41.4">
+    <row r="5" spans="1:11" ht="28.5">
       <c r="A5" s="2" t="s">
         <v>665</v>
       </c>
@@ -8370,7 +8544,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="55.2">
+    <row r="6" spans="1:11" ht="28.5">
       <c r="A6" s="2" t="s">
         <v>676</v>
       </c>
@@ -8405,7 +8579,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="55.2">
+    <row r="7" spans="1:11" ht="42.75">
       <c r="A7" s="1" t="s">
         <v>685</v>
       </c>
@@ -8440,7 +8614,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="27.6">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>696</v>
       </c>
@@ -8475,7 +8649,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="55.2">
+    <row r="9" spans="1:11" ht="28.5">
       <c r="A9" s="1" t="s">
         <v>707</v>
       </c>
@@ -8510,7 +8684,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="41.4">
+    <row r="10" spans="1:11" ht="28.5">
       <c r="A10" s="1" t="s">
         <v>718</v>
       </c>
@@ -8545,7 +8719,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="55.2">
+    <row r="11" spans="1:11" ht="28.5">
       <c r="A11" s="1" t="s">
         <v>728</v>
       </c>
@@ -8580,7 +8754,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="41.4">
+    <row r="12" spans="1:11" ht="28.5">
       <c r="A12" s="1" t="s">
         <v>737</v>
       </c>
@@ -8595,7 +8769,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="41.4">
+    <row r="13" spans="1:11" ht="28.5">
       <c r="A13" s="1" t="s">
         <v>738</v>
       </c>
@@ -8630,7 +8804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="41.4">
+    <row r="14" spans="1:11" ht="28.5">
       <c r="A14" s="1" t="s">
         <v>744</v>
       </c>
@@ -8665,7 +8839,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="96.6">
+    <row r="15" spans="1:11" ht="57">
       <c r="A15" s="1" t="s">
         <v>749</v>
       </c>
@@ -8700,7 +8874,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="69">
+    <row r="16" spans="1:11" ht="42.75">
       <c r="A16" s="1" t="s">
         <v>759</v>
       </c>
@@ -8735,7 +8909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="55.2">
+    <row r="17" spans="1:11" ht="28.5">
       <c r="A17" s="1" t="s">
         <v>760</v>
       </c>
@@ -8770,7 +8944,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="41.4">
+    <row r="18" spans="1:11" ht="28.5">
       <c r="A18" s="1" t="s">
         <v>768</v>
       </c>
@@ -8805,7 +8979,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="82.8">
+    <row r="19" spans="1:11" ht="57">
       <c r="A19" s="1" t="s">
         <v>776</v>
       </c>
@@ -8840,7 +9014,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="27.6">
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>785</v>
       </c>
@@ -8875,7 +9049,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="69">
+    <row r="21" spans="1:11" ht="42.75">
       <c r="A21" s="1" t="s">
         <v>795</v>
       </c>
@@ -8910,7 +9084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="55.2">
+    <row r="22" spans="1:11" ht="28.5">
       <c r="A22" s="1" t="s">
         <v>797</v>
       </c>
@@ -8945,7 +9119,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="41.4">
+    <row r="23" spans="1:11" ht="28.5">
       <c r="A23" s="1" t="s">
         <v>805</v>
       </c>
@@ -8980,7 +9154,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="55.2">
+    <row r="24" spans="1:11" ht="28.5">
       <c r="A24" s="1" t="s">
         <v>816</v>
       </c>
@@ -9015,7 +9189,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="41.4">
+    <row r="25" spans="1:11" ht="28.5">
       <c r="A25" s="1" t="s">
         <v>827</v>
       </c>
@@ -9030,7 +9204,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="41.4">
+    <row r="26" spans="1:11" ht="28.5">
       <c r="A26" s="1" t="s">
         <v>828</v>
       </c>
@@ -9065,7 +9239,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="55.2">
+    <row r="27" spans="1:11" ht="42.75">
       <c r="A27" s="1" t="s">
         <v>832</v>
       </c>
@@ -9100,7 +9274,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="41.4">
+    <row r="28" spans="1:11" ht="28.5">
       <c r="A28" s="1" t="s">
         <v>834</v>
       </c>
@@ -9135,7 +9309,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="41.4">
+    <row r="29" spans="1:11" ht="28.5">
       <c r="A29" s="1" t="s">
         <v>843</v>
       </c>
@@ -9170,7 +9344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="55.2">
+    <row r="30" spans="1:11" ht="28.5">
       <c r="A30" s="1" t="s">
         <v>844</v>
       </c>
@@ -9205,7 +9379,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="41.4">
+    <row r="31" spans="1:11" ht="28.5">
       <c r="A31" s="1" t="s">
         <v>845</v>
       </c>
@@ -9240,7 +9414,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="41.4">
+    <row r="32" spans="1:11" ht="28.5">
       <c r="A32" s="1" t="s">
         <v>852</v>
       </c>
@@ -9275,7 +9449,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="69">
+    <row r="33" spans="1:11" ht="42.75">
       <c r="A33" s="1" t="s">
         <v>860</v>
       </c>
@@ -9310,7 +9484,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="55.2">
+    <row r="34" spans="1:11" ht="42.75">
       <c r="A34" s="1" t="s">
         <v>871</v>
       </c>
@@ -9345,7 +9519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="55.2">
+    <row r="35" spans="1:11" ht="28.5">
       <c r="A35" s="1" t="s">
         <v>872</v>
       </c>
@@ -9380,7 +9554,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="41.4">
+    <row r="36" spans="1:11" ht="28.5">
       <c r="A36" s="1" t="s">
         <v>882</v>
       </c>
@@ -9415,7 +9589,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="55.2">
+    <row r="37" spans="1:11" ht="28.5">
       <c r="A37" s="1" t="s">
         <v>888</v>
       </c>
@@ -9450,7 +9624,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="55.2">
+    <row r="38" spans="1:11" ht="42.75">
       <c r="A38" s="1" t="s">
         <v>898</v>
       </c>
@@ -9485,7 +9659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="41.4">
+    <row r="39" spans="1:11" ht="28.5">
       <c r="A39" s="1" t="s">
         <v>906</v>
       </c>
@@ -9520,7 +9694,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="55.2">
+    <row r="40" spans="1:11" ht="28.5">
       <c r="A40" s="1" t="s">
         <v>916</v>
       </c>
@@ -9555,7 +9729,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="41.4">
+    <row r="41" spans="1:11" ht="28.5">
       <c r="A41" s="1" t="s">
         <v>924</v>
       </c>
@@ -9604,15 +9778,15 @@
       <selection activeCell="A15" sqref="A15:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
         <v>972</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -9626,7 +9800,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7"/>
+      <c r="A2" s="10"/>
       <c r="B2" s="3" t="s">
         <v>929</v>
       </c>
@@ -9638,7 +9812,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>932</v>
       </c>
@@ -9650,7 +9824,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>935</v>
       </c>
@@ -9662,7 +9836,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>937</v>
       </c>
@@ -9674,7 +9848,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>939</v>
       </c>
@@ -9686,7 +9860,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>940</v>
       </c>
@@ -9698,7 +9872,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>942</v>
       </c>
@@ -9710,7 +9884,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="7"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>944</v>
       </c>
@@ -9722,7 +9896,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>945</v>
       </c>
@@ -9734,7 +9908,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="7"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>947</v>
       </c>
@@ -9746,7 +9920,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>949</v>
       </c>
@@ -9758,7 +9932,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
         <v>951</v>
       </c>
@@ -9770,7 +9944,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="7"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3" t="s">
         <v>952</v>
       </c>
@@ -9782,7 +9956,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="10" t="s">
         <v>973</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -9796,7 +9970,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
         <v>956</v>
       </c>
@@ -9808,7 +9982,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
         <v>957</v>
       </c>
@@ -9820,7 +9994,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="3" t="s">
         <v>958</v>
       </c>
@@ -9832,7 +10006,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>960</v>
       </c>
@@ -9844,7 +10018,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
         <v>961</v>
       </c>
@@ -9856,7 +10030,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="7"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
         <v>963</v>
       </c>
@@ -9868,7 +10042,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>964</v>
       </c>
@@ -9880,7 +10054,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="7"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
         <v>965</v>
       </c>
@@ -9892,7 +10066,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
         <v>966</v>
       </c>
@@ -9904,7 +10078,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="7"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>967</v>
       </c>
@@ -9916,7 +10090,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="7"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
         <v>968</v>
       </c>
@@ -9945,21 +10119,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="27.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="27.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>1013</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -9968,100 +10143,100 @@
       <c r="C1" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="7">
         <v>30</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>975</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="11"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="3" t="s">
         <v>977</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>13</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>979</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>60</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>981</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>40</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>982</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>78</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
         <v>984</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>160</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>986</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>1014</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -10070,142 +10245,142 @@
       <c r="C8" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>60</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>988</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>990</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>30</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>991</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>10</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>992</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>10</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>993</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>100</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>994</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>50</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>995</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>50</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
         <v>996</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>10</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
         <v>998</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>200</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>999</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>1015</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -10214,153 +10389,153 @@
       <c r="C18" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>150</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>1000</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="11" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
         <v>1002</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>20</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
         <v>1003</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>40</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="3" t="s">
         <v>1004</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>60</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>977</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>30</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
         <v>1005</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>2</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="3" t="s">
         <v>1007</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>8</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
         <v>1009</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>60</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="3" t="s">
         <v>1011</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>10</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>20</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>400</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="6" t="s">
@@ -10381,5 +10556,813 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="16" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="16" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C3" s="16">
+        <v>121.23269999999999</v>
+      </c>
+      <c r="D3" s="16">
+        <v>99.592299999999994</v>
+      </c>
+      <c r="E3" s="16">
+        <v>48.691000000000003</v>
+      </c>
+      <c r="F3" s="16">
+        <v>32.4621</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0.3679</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.75249999999999995</v>
+      </c>
+      <c r="I3" s="16">
+        <v>1.1287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C4" s="16">
+        <v>54.745800000000003</v>
+      </c>
+      <c r="D4" s="16">
+        <v>43.530299999999997</v>
+      </c>
+      <c r="E4" s="16">
+        <v>31.536200000000001</v>
+      </c>
+      <c r="F4" s="16">
+        <v>24.5748</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.77669999999999995</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1.0721000000000001</v>
+      </c>
+      <c r="I4" s="16">
+        <v>1.3757999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="16" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C5" s="16">
+        <v>69.687700000000007</v>
+      </c>
+      <c r="D5" s="16">
+        <v>60.919899999999998</v>
+      </c>
+      <c r="E5" s="16">
+        <v>39.126300000000001</v>
+      </c>
+      <c r="F5" s="16">
+        <v>26.8782</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1.0806</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1.6825000000000001</v>
+      </c>
+      <c r="I5" s="16">
+        <v>2.4491999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="16" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C6" s="16">
+        <v>21.761500000000002</v>
+      </c>
+      <c r="D6" s="16">
+        <v>10.867000000000001</v>
+      </c>
+      <c r="E6" s="16">
+        <v>8.7888999999999999</v>
+      </c>
+      <c r="F6" s="16">
+        <v>7.7202999999999999</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1.2515000000000001</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1.5474000000000001</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1.7616000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="16" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C7" s="16">
+        <v>23.686299999999999</v>
+      </c>
+      <c r="D7" s="16">
+        <v>22.0197</v>
+      </c>
+      <c r="E7" s="16">
+        <v>17.807099999999998</v>
+      </c>
+      <c r="F7" s="16">
+        <v>14.5405</v>
+      </c>
+      <c r="G7" s="16">
+        <v>4.2462</v>
+      </c>
+      <c r="H7" s="16">
+        <v>5.2507000000000001</v>
+      </c>
+      <c r="I7" s="16">
+        <v>6.4302999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C8" s="16">
+        <v>27.1632</v>
+      </c>
+      <c r="D8" s="16">
+        <v>20.9407</v>
+      </c>
+      <c r="E8" s="16">
+        <v>15.0318</v>
+      </c>
+      <c r="F8" s="16">
+        <v>11.4526</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1.9751000000000001</v>
+      </c>
+      <c r="H8" s="16">
+        <v>2.7515000000000001</v>
+      </c>
+      <c r="I8" s="16">
+        <v>3.6114000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="16" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C9" s="16">
+        <v>111.08240000000001</v>
+      </c>
+      <c r="D9" s="16">
+        <v>104.2568</v>
+      </c>
+      <c r="E9" s="16">
+        <v>66.579400000000007</v>
+      </c>
+      <c r="F9" s="16">
+        <v>44.063899999999997</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.43930000000000002</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.68789999999999996</v>
+      </c>
+      <c r="I9" s="16">
+        <v>1.0394000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="16" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B10" s="16">
+        <v>61.34</v>
+      </c>
+      <c r="C10" s="16">
+        <v>51.73</v>
+      </c>
+      <c r="D10" s="16">
+        <v>32.5</v>
+      </c>
+      <c r="E10" s="16">
+        <v>23.1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1.45</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1.96</v>
+      </c>
+      <c r="H10" s="16">
+        <v>2.54</v>
+      </c>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="16" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C11" s="16">
+        <v>27.8</v>
+      </c>
+      <c r="D11" s="16">
+        <v>28.76</v>
+      </c>
+      <c r="E11" s="16">
+        <v>19.38</v>
+      </c>
+      <c r="F11" s="16">
+        <v>12.61</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1.22</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="I11" s="16">
+        <v>2.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="15" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="16"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="16" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>1060</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>1061</v>
+      </c>
+      <c r="O2" s="16"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="16" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C3" s="16">
+        <v>104.5972</v>
+      </c>
+      <c r="D3" s="16">
+        <v>97.211799999999997</v>
+      </c>
+      <c r="E3" s="16">
+        <v>73.338399999999993</v>
+      </c>
+      <c r="F3" s="16">
+        <v>56.113300000000002</v>
+      </c>
+      <c r="G3" s="16">
+        <v>3.0771999999999999</v>
+      </c>
+      <c r="H3" s="16">
+        <v>4.0789</v>
+      </c>
+      <c r="I3" s="16">
+        <v>5.3310000000000004</v>
+      </c>
+      <c r="K3" s="16">
+        <v>1</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M3" s="16">
+        <v>52.85</v>
+      </c>
+      <c r="N3" s="16">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="16" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C4" s="16">
+        <v>133.83879999999999</v>
+      </c>
+      <c r="D4" s="16">
+        <v>114.58710000000001</v>
+      </c>
+      <c r="E4" s="16">
+        <v>89.885199999999998</v>
+      </c>
+      <c r="F4" s="16">
+        <v>69.857399999999998</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1.1757</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1.4987999999999999</v>
+      </c>
+      <c r="I4" s="16">
+        <v>1.9285000000000001</v>
+      </c>
+      <c r="K4" s="16">
+        <v>2</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M4" s="16">
+        <v>56.12</v>
+      </c>
+      <c r="N4" s="16">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="16" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C5" s="16">
+        <v>94.898899999999998</v>
+      </c>
+      <c r="D5" s="16">
+        <v>98.939899999999994</v>
+      </c>
+      <c r="E5" s="16">
+        <v>78.410899999999998</v>
+      </c>
+      <c r="F5" s="16">
+        <v>59.775599999999997</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1.2169000000000001</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1.5355000000000001</v>
+      </c>
+      <c r="I5" s="16">
+        <v>2.0142000000000002</v>
+      </c>
+      <c r="K5" s="16">
+        <v>3</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M5" s="16">
+        <v>31.5</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0.28039999999999998</v>
+      </c>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C6" s="16">
+        <v>113.2427</v>
+      </c>
+      <c r="D6" s="16">
+        <v>106.55549999999999</v>
+      </c>
+      <c r="E6" s="16">
+        <v>74.413600000000002</v>
+      </c>
+      <c r="F6" s="16">
+        <v>52.8553</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1.2950999999999999</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1.8545</v>
+      </c>
+      <c r="I6" s="16">
+        <v>2.6109</v>
+      </c>
+      <c r="K6" s="16">
+        <v>4</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>1050</v>
+      </c>
+      <c r="M6" s="16">
+        <v>20.72</v>
+      </c>
+      <c r="N6" s="16">
+        <v>0.33560000000000001</v>
+      </c>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C7" s="16">
+        <v>68.624099999999999</v>
+      </c>
+      <c r="D7" s="16">
+        <v>69.961699999999993</v>
+      </c>
+      <c r="E7" s="16">
+        <v>52.456200000000003</v>
+      </c>
+      <c r="F7" s="16">
+        <v>39.029600000000002</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.93569999999999998</v>
+      </c>
+      <c r="K7" s="16">
+        <v>5</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M7" s="16">
+        <v>10.55</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0.46139999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="16" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C8" s="16">
+        <v>84.419399999999996</v>
+      </c>
+      <c r="D8" s="16">
+        <v>78.405600000000007</v>
+      </c>
+      <c r="E8" s="16">
+        <v>50.182200000000002</v>
+      </c>
+      <c r="F8" s="16">
+        <v>39.593000000000004</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0.45660000000000001</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0.71340000000000003</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0.9042</v>
+      </c>
+      <c r="K8" s="16">
+        <v>6</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>1062</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="16" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C9" s="16">
+        <v>36.488700000000001</v>
+      </c>
+      <c r="D9" s="16">
+        <v>35.097200000000001</v>
+      </c>
+      <c r="E9" s="16">
+        <v>27.443100000000001</v>
+      </c>
+      <c r="F9" s="16">
+        <v>21.816099999999999</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.6633</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.84830000000000005</v>
+      </c>
+      <c r="I9" s="16">
+        <v>1.0670999999999999</v>
+      </c>
+      <c r="K9" s="16">
+        <v>7</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M9" s="16">
+        <v>7.97</v>
+      </c>
+      <c r="N9" s="16">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="16" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B10" s="16">
+        <v>90.872799999999998</v>
+      </c>
+      <c r="C10" s="16">
+        <v>85.822699999999998</v>
+      </c>
+      <c r="D10" s="16">
+        <v>63.732799999999997</v>
+      </c>
+      <c r="E10" s="16">
+        <v>48.4343</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1.2010000000000001</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1.6036999999999999</v>
+      </c>
+      <c r="H10" s="16">
+        <v>2.1131000000000002</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="K10" s="16">
+        <v>8</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="N10" s="16">
+        <v>0.4103</v>
+      </c>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="16" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C11" s="16">
+        <v>27.8</v>
+      </c>
+      <c r="D11" s="16">
+        <v>28.76</v>
+      </c>
+      <c r="E11" s="16">
+        <v>19.38</v>
+      </c>
+      <c r="F11" s="16">
+        <v>12.61</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1.22</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="I11" s="16">
+        <v>2.78</v>
+      </c>
+      <c r="K11" s="16">
+        <v>9</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M11" s="16">
+        <v>1.2</v>
+      </c>
+      <c r="N11" s="16">
+        <v>1.1313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="K12" s="16">
+        <v>10</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>1065</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>